--- a/Default Settings/Config.xlsx
+++ b/Default Settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Default Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FACBE6-D2D6-4A3A-8600-0B7E2F1AAE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FEDFA5-FDC7-475A-B47A-737CE330A7BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -686,23 +686,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A1A2DE-3EB8-4AD4-9CF1-023800AFF144}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -718,7 +718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -742,7 +742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -763,24 +763,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -835,7 +835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -874,14 +874,14 @@
       <c r="E5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11">
-        <v>50</v>
-      </c>
+      <c r="F5" s="12">
+        <v>50000000</v>
+      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -892,7 +892,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -903,7 +903,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -914,7 +914,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -925,7 +925,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -936,7 +936,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -947,7 +947,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -958,7 +958,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
@@ -1016,23 +1016,23 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1121,7 +1121,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1132,7 +1132,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1143,7 +1143,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1154,7 +1154,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1165,7 +1165,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1176,7 +1176,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1187,7 +1187,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1198,7 +1198,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
@@ -1259,13 +1259,13 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>

--- a/Default Settings/Config.xlsx
+++ b/Default Settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Default Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FEDFA5-FDC7-475A-B47A-737CE330A7BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33A243F-E44E-4E0E-8681-E8BBBD7FBFBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>C:\Documents\MCNP\MCNP_DATA\xsdir_mcnp6.2</t>
+  </si>
+  <si>
+    <t>32c</t>
+  </si>
+  <si>
+    <t>FENDL 3.2 beta</t>
   </si>
 </sst>
 </file>
@@ -764,7 +770,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,16 +1259,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F03233-EAF0-4262-AA38-EF4B945A3E70}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,20 +1308,28 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Default Settings/Config.xlsx
+++ b/Default Settings/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Default Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33A243F-E44E-4E0E-8681-E8BBBD7FBFBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2B7DE-7CC4-4F80-8C59-1862E479D43D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="2985" yWindow="3075" windowWidth="17280" windowHeight="9030" firstSheet="1" activeTab="3" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Activation (NI)</t>
   </si>
   <si>
-    <t>81c</t>
-  </si>
-  <si>
     <t>ENDF VIII</t>
   </si>
   <si>
@@ -153,12 +150,6 @@
     <t>ITER 1D (by M. Sawan)</t>
   </si>
   <si>
-    <t>Oktavian_Fe.i</t>
-  </si>
-  <si>
-    <t>Oktavian Iron Experiment</t>
-  </si>
-  <si>
     <t>C:\Documents\MCNP\MCNP_DATA\xsdir_mcnp6.2</t>
   </si>
   <si>
@@ -166,6 +157,15 @@
   </si>
   <si>
     <t>FENDL 3.2 beta</t>
+  </si>
+  <si>
+    <t>Oktavian Experiment</t>
+  </si>
+  <si>
+    <t>Oktavian</t>
+  </si>
+  <si>
+    <t>00c</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -849,13 +849,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="11">
@@ -866,19 +866,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="12">
         <v>50000000</v>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C8:C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,24 +1095,24 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11">
-        <v>50</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F03233-EAF0-4262-AA38-EF4B945A3E70}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,10 +1324,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>

--- a/Default Settings/Config.xlsx
+++ b/Default Settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Default Settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Default Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2B7DE-7CC4-4F80-8C59-1862E479D43D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23265B9-1057-4D21-8668-17EEBDA88091}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="3075" windowWidth="17280" windowHeight="9030" firstSheet="1" activeTab="3" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="40320" yWindow="2490" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>00c</t>
+  </si>
+  <si>
+    <t>HCPB_TBM_1D.i</t>
+  </si>
+  <si>
+    <t>Helium Cooled Test Blanket Module (1D)</t>
   </si>
 </sst>
 </file>
@@ -696,19 +702,19 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -724,7 +730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -732,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -740,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -748,7 +754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.600000000000001" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -769,24 +775,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
@@ -799,7 +805,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -812,7 +818,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -841,7 +847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -864,7 +870,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
@@ -887,18 +893,30 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="12">
+        <v>10000000</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -909,7 +927,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -920,7 +938,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -931,7 +949,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -942,7 +960,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -953,7 +971,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -964,7 +982,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
@@ -977,7 +995,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
@@ -1025,20 +1043,20 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
@@ -1051,7 +1069,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1082,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -1093,7 +1111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
@@ -1116,7 +1134,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1127,7 +1145,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1138,7 +1156,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1149,7 +1167,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1160,7 +1178,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1171,7 +1189,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1182,7 +1200,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1193,7 +1211,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1204,7 +1222,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
@@ -1217,7 +1235,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
@@ -1261,17 +1279,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F03233-EAF0-4262-AA38-EF4B945A3E70}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1298,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1314,7 +1332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>

--- a/Default Settings/Config.xlsx
+++ b/Default Settings/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Default Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23265B9-1057-4D21-8668-17EEBDA88091}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F4CCC1-6D66-4044-950C-D3FF6A701C33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40320" yWindow="2490" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="0" yWindow="1872" windowWidth="21648" windowHeight="10356" firstSheet="1" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -171,7 +171,13 @@
     <t>HCPB_TBM_1D.i</t>
   </si>
   <si>
-    <t>Helium Cooled Test Blanket Module (1D)</t>
+    <t>Water Cooled Lithium Lead Test Blanket Module (1D)</t>
+  </si>
+  <si>
+    <t>Helium Cooled Pebbled Bed Test Blanket Module (1D)</t>
+  </si>
+  <si>
+    <t>WCLL_TBM_1D.i</t>
   </si>
 </sst>
 </file>
@@ -334,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -381,6 +387,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,251 +815,264 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11">
+      <c r="F4" s="28"/>
+      <c r="G4" s="27">
         <v>500</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="28">
         <v>50000000</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="28">
+        <v>10000000</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="28">
         <v>10000000</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="16" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="25" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Default Settings/Config.xlsx
+++ b/Default Settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Default Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F4CCC1-6D66-4044-950C-D3FF6A701C33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1C5007-EBDE-4C1B-A997-4AB83A3F4101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1872" windowWidth="21648" windowHeight="10356" firstSheet="1" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Computational benchmark additional options</t>
   </si>
   <si>
-    <t>User Defined Benchmarks (not developed)</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t>Sphere Leakage Test</t>
-  </si>
-  <si>
-    <t>Activation (NI)</t>
   </si>
   <si>
     <t>ENDF VIII</t>
@@ -373,6 +367,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,46 +398,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,17 +742,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.35">
@@ -779,7 +773,7 @@
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -812,275 +806,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" style="29" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="20" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="38" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="25" t="s">
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="E4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19">
+        <v>500</v>
+      </c>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27">
-        <v>500</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="C5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
         <v>50000000</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="B6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
         <v>10000000</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="20">
         <v>10000000</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" s="23" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1089,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EEB530-2BB1-44BD-96B5-AB98331CD0CC}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,38 +1021,35 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.109375" customWidth="1"/>
     <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>2</v>
@@ -1159,34 +1072,30 @@
       <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="12">
         <v>100000</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1195,9 +1104,8 @@
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1206,9 +1114,8 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1217,9 +1124,8 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1228,9 +1134,8 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1239,88 +1144,11 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A13:I13"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1378,10 +1206,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,10 +1222,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>

--- a/Default Settings/Config.xlsx
+++ b/Default Settings/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Default Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1C5007-EBDE-4C1B-A997-4AB83A3F4101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848E429D-E709-4947-85C6-B5F1156127EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="34695" yWindow="3060" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>WCLL_TBM_1D.i</t>
+  </si>
+  <si>
+    <t>C-Model R181031 rev190715</t>
+  </si>
+  <si>
+    <t>C_Model.i</t>
   </si>
 </sst>
 </file>
@@ -397,13 +403,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,28 +832,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -964,12 +970,24 @@
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="20">
+        <v>100000000</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
@@ -1007,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EEB530-2BB1-44BD-96B5-AB98331CD0CC}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/Default Settings/Config.xlsx
+++ b/Default Settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Default Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848E429D-E709-4947-85C6-B5F1156127EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7CE6E-49B2-4BBD-B207-6352B7D76FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34695" yWindow="3060" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>C_Model.i</t>
+  </si>
+  <si>
+    <t>mcnp6</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -325,22 +328,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,22 +395,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -812,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,10 +814,11 @@
     <col min="6" max="6" width="13.6640625" style="14" customWidth="1"/>
     <col min="7" max="7" width="18.109375" style="14" customWidth="1"/>
     <col min="8" max="8" width="21.109375" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="14"/>
+    <col min="9" max="9" width="8.88671875" style="19"/>
+    <col min="10" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
@@ -842,20 +829,22 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
@@ -880,8 +869,11 @@
       <c r="H3" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
@@ -902,8 +894,11 @@
         <v>500</v>
       </c>
       <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
@@ -924,8 +919,11 @@
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I5" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>46</v>
       </c>
@@ -946,8 +944,11 @@
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I6" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>45</v>
       </c>
@@ -968,8 +969,11 @@
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>48</v>
       </c>
@@ -990,8 +994,11 @@
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1001,7 +1008,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1013,8 +1020,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1023,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EEB530-2BB1-44BD-96B5-AB98331CD0CC}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,31 +1048,33 @@
     <col min="8" max="8" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>31</v>
       </c>
@@ -1090,8 +1099,11 @@
       <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>41</v>
       </c>
@@ -1112,8 +1124,11 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1123,7 +1138,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1133,7 +1148,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1143,7 +1158,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1153,7 +1168,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1165,8 +1180,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Default Settings/Config.xlsx
+++ b/Default Settings/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.laghi\Documents\GitHub\JADE\Code\Default Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7CE6E-49B2-4BBD-B207-6352B7D76FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD6F3D8-C818-44C1-B960-64FDF3C5E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>mcnp6</t>
+  </si>
+  <si>
+    <t>ITER Cylindrical benchmark for SDDR</t>
+  </si>
+  <si>
+    <t>ITER_Cyl_SDDR.i</t>
+  </si>
+  <si>
+    <t>D1S5</t>
   </si>
 </sst>
 </file>
@@ -800,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,14 +1008,29 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="20">
+        <v>500000000</v>
+      </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
@@ -1032,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EEB530-2BB1-44BD-96B5-AB98331CD0CC}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
